--- a/InputData/inputData.xlsx
+++ b/InputData/inputData.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14880" windowHeight="2550"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="submitSite" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,19 +21,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
+    <t>dl</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
-    <t>dl</t>
+    <t>rqm</t>
   </si>
   <si>
     <t>https://www.awwwards.com/submit/</t>
   </si>
   <si>
     <t>tmgoogletagmanager</t>
-  </si>
-  <si>
-    <t>rqm</t>
   </si>
   <si>
     <t>GET</t>
@@ -43,18 +43,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -77,16 +69,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -368,37 +357,34 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/InputData/inputData.xlsx
+++ b/InputData/inputData.xlsx
@@ -19,24 +19,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>dl</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>rqm</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>https://www.awwwards.com/submit/</t>
   </si>
   <si>
-    <t>tmgoogletagmanager</t>
+    <t>url</t>
   </si>
   <si>
-    <t>GET</t>
+    <t>tiba</t>
+  </si>
+  <si>
+    <t>Choose an option to submit your site</t>
   </si>
 </sst>
 </file>
@@ -354,34 +348,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
